--- a/ComcastCRMGUIFramework/testdata/Testscriptdata.xlsx
+++ b/ComcastCRMGUIFramework/testdata/Testscriptdata.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\study notes 2024\Selenium\SeleniumworkSpace\ComcastCRMGUIFramework\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CE82B0-1927-4C38-96FA-EF103080B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E1C9EAF1-FB68-4D8A-B975-B28A5A7E5068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20490" windowHeight="10965" activeTab="1" xr2:uid="{451C5430-042C-40C4-9486-F3F50C0E2FA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{451C5430-042C-40C4-9486-F3F50C0E2FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -20,6 +15,7 @@
     <sheet name="org" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:D25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -681,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061EE9D2-886B-4CCD-8250-87B88DB6B2BD}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D18D4A4-E6EC-4DE9-8459-2ECCC27B2D5F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
